--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>单例模式——5种实现方式</t>
   </si>
@@ -25,6 +25,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.饿汉式(线程安全，调用效率高，但是不能延时加载)：</t>
     </r>
     <r>
@@ -41,6 +48,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.懒汉式(线程安全，调用效率不高，但是能延时加载):</t>
     </r>
     <r>
@@ -63,6 +77,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5.枚举类（线程安全，调用效率高，不能延时加载，可以天然的防止反射和反序列化调用）</t>
     </r>
     <r>
@@ -83,6 +104,72 @@
   <si>
     <t>单例对象 占用资源多，需要延时加载，静态内部类 好于 懒汉式</t>
   </si>
+  <si>
+    <t>饿汉式</t>
+  </si>
+  <si>
+    <t>在程序启动或单件模式类被加载的时候，单件模式实例就已经被创建。</t>
+  </si>
+  <si>
+    <t>懒汉式</t>
+  </si>
+  <si>
+    <t>当程序第一次访问单件模式实例时才进行创建</t>
+  </si>
+  <si>
+    <t>这个代码在单线程环境下会良好运行，但在多线程环境下会有较大问题，也就是所谓的线程不安全</t>
+  </si>
+  <si>
+    <t>线程A在运行到singleton = new Singleton()时</t>
+  </si>
+  <si>
+    <t>线程B刚好在进行singleton == null</t>
+  </si>
+  <si>
+    <t>这时线程B会继续进入if块</t>
+  </si>
+  <si>
+    <t>而重新对线程A已经实例化的singleton进行重新实例化</t>
+  </si>
+  <si>
+    <t>解决这个问题的最简单方法是用同步块synchronized</t>
+  </si>
+  <si>
+    <t>DCL非线程安全的实现</t>
+  </si>
+  <si>
+    <t>懒汉式+Synchronized线程安全的，因为整个方法都被锁住了,这样就会导致较大的性能损失</t>
+  </si>
+  <si>
+    <t>解决这个问题可以使用DCL(Double Check Lock)</t>
+  </si>
+  <si>
+    <t>代码块只有实例第一次被访问时，才会有线程进入synchronized同步块，这样极大提高了性能</t>
+  </si>
+  <si>
+    <t>第一次访问时，如果有多个线程同时进入if块，只有第一个线程会获得锁创建实例，其他线程被阻塞</t>
+  </si>
+  <si>
+    <t>第二次访问时，被阻塞的线程会进入同步块，进行第二次check,如果此时实例不为null，则返回。</t>
+  </si>
+  <si>
+    <t>Java程序创建一个实例的过程为：</t>
+  </si>
+  <si>
+    <t>分配内存空间</t>
+  </si>
+  <si>
+    <t>初始化对象</t>
+  </si>
+  <si>
+    <t>将内存空间的地址赋值给对应的引用</t>
+  </si>
+  <si>
+    <t>但是由于指令重排的原因，什么是指令重排？指令重排序是JVM为了优化指令，提高程序运行效率。</t>
+  </si>
+  <si>
+    <t>指令重排序包括编译器重排序和运行时重排序，JVM规范规定，指令重排序可以在不影响单线程程序执行结果前提下进行。</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +198,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,31 +257,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,11 +289,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,94 +334,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,13 +351,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,169 +507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +545,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -472,6 +582,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,45 +637,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -567,153 +647,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -781,6 +864,179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="4305300"/>
+          <a:ext cx="2705100" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2228850"/>
+          <a:ext cx="3705225" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7715250"/>
+          <a:ext cx="3571875" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10458450"/>
+          <a:ext cx="3105150" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,16 +1326,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1089,12 +1348,12 @@
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1109,7 +1368,7 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1121,12 +1380,134 @@
     <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="单例模式" sheetId="1" r:id="rId1"/>
+    <sheet name="RPC" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>单例模式——5种实现方式</t>
   </si>
@@ -169,6 +169,138 @@
   </si>
   <si>
     <t>指令重排序包括编译器重排序和运行时重排序，JVM规范规定，指令重排序可以在不影响单线程程序执行结果前提下进行。</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>远程过程调用</t>
+  </si>
+  <si>
+    <r>
+      <t>消费方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务方提供的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态代理获取代理对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后调用代理对象的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，代理对象在内部进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，获得计算结果</t>
+    </r>
+  </si>
+  <si>
+    <t>主要有服务提供方暴露服务</t>
+  </si>
+  <si>
+    <t>服务消费方获取代理对象</t>
+  </si>
+  <si>
+    <t>代理对象与服务提供方建立远程连接</t>
+  </si>
+  <si>
+    <t>暴露服务</t>
+  </si>
+  <si>
+    <t>建立ServerSocket服务，并监听指定端口</t>
+  </si>
+  <si>
+    <t>当有远程连接建立时，创建一个线程，在线程中从输入流中依次读取方法名、参数类型、参数值等信息</t>
+  </si>
+  <si>
+    <t>，并根据方法名和参数执行实例对象service中对应的方法，获得返回结果</t>
+  </si>
+  <si>
+    <t>代理工厂</t>
+  </si>
+  <si>
+    <t>消费方获取代理对象，使用JDK的动态代理API，传入接口类名。生成代理对象的时候，需要传入一个实现了InvocationHandler的对象</t>
+  </si>
+  <si>
+    <t>代理对象建立远程连接</t>
+  </si>
+  <si>
+    <t>这个Handler中重写了invoke方法，实现代理对象的方法与服务提供方建立连接并获得返回结果</t>
   </si>
 </sst>
 </file>
@@ -1024,6 +1156,135 @@
         <a:xfrm>
           <a:off x="685800" y="10458450"/>
           <a:ext cx="3105150" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="857250"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="733425"/>
+          <a:ext cx="5867400" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,10 +1587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1503,6 +1764,37 @@
         <v>27</v>
       </c>
     </row>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1514,17 +1806,156 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单例模式" sheetId="1" r:id="rId1"/>
-    <sheet name="RPC" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>单例模式——5种实现方式</t>
   </si>
@@ -170,148 +169,16 @@
   <si>
     <t>指令重排序包括编译器重排序和运行时重排序，JVM规范规定，指令重排序可以在不影响单线程程序执行结果前提下进行。</t>
   </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>远程过程调用</t>
-  </si>
-  <si>
-    <r>
-      <t>消费方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务方提供的接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动态代理获取代理对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>象</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>然后调用代理对象的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，代理对象在内部进行</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>远程调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，获得计算结果</t>
-    </r>
-  </si>
-  <si>
-    <t>主要有服务提供方暴露服务</t>
-  </si>
-  <si>
-    <t>服务消费方获取代理对象</t>
-  </si>
-  <si>
-    <t>代理对象与服务提供方建立远程连接</t>
-  </si>
-  <si>
-    <t>暴露服务</t>
-  </si>
-  <si>
-    <t>建立ServerSocket服务，并监听指定端口</t>
-  </si>
-  <si>
-    <t>当有远程连接建立时，创建一个线程，在线程中从输入流中依次读取方法名、参数类型、参数值等信息</t>
-  </si>
-  <si>
-    <t>，并根据方法名和参数执行实例对象service中对应的方法，获得返回结果</t>
-  </si>
-  <si>
-    <t>代理工厂</t>
-  </si>
-  <si>
-    <t>消费方获取代理对象，使用JDK的动态代理API，传入接口类名。生成代理对象的时候，需要传入一个实现了InvocationHandler的对象</t>
-  </si>
-  <si>
-    <t>代理对象建立远程连接</t>
-  </si>
-  <si>
-    <t>这个Handler中重写了invoke方法，实现代理对象的方法与服务提供方建立连接并获得返回结果</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -330,6 +197,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -337,8 +205,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,128 +340,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -483,19 +350,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,163 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,36 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -733,6 +570,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -757,20 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,141 +661,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1156,135 +1020,6 @@
         <a:xfrm>
           <a:off x="685800" y="10458450"/>
           <a:ext cx="3105150" cy="2809875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="857250"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="685800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638175" y="733425"/>
-          <a:ext cx="5867400" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1599,7 +1334,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1609,12 +1344,12 @@
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1629,7 +1364,7 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1806,166 +1541,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="单例模式" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,67 @@
     <t>将内存空间的地址赋值给对应的引用</t>
   </si>
   <si>
-    <t>但是由于指令重排的原因，什么是指令重排？指令重排序是JVM为了优化指令，提高程序运行效率。</t>
-  </si>
-  <si>
-    <t>指令重排序包括编译器重排序和运行时重排序，JVM规范规定，指令重排序可以在不影响单线程程序执行结果前提下进行。</t>
+    <r>
+      <t>但是由于指令重排的原因，什么是指令重排？指令重排序是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JVM为了优化指令，提高程序运行效率。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>指令重</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排序包括编译器重排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行时重排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，JVM规范规定，指令重排序可以在不影响单线程程序执行结果前提下进行。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -199,15 +256,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,123 +384,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,187 +407,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,23 +634,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +658,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,30 +698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,8 +1381,8 @@
   <sheetPr/>
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1475,12 +1532,12 @@
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1543,7 +1600,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -165,6 +165,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但是由于指令重排的原因，什么是指令重排？指令重排序是</t>
     </r>
     <r>
@@ -181,6 +188,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>指令重</t>
     </r>
     <r>
@@ -232,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -254,55 +268,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,13 +374,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -330,69 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,25 +421,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,157 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +612,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +641,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,39 +695,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -678,23 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
